--- a/MCNP Example Runs/Ex2-3/Ex2-3.xlsx
+++ b/MCNP Example Runs/Ex2-3/Ex2-3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14388" windowHeight="3960" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14388" windowHeight="3960" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="6" r:id="rId1"/>
@@ -115,31 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Patrick Dolloso:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The density of the Pu sphere (cell 1) is the sum of all densities of the isotopes</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E18" authorId="0" shapeId="0">
+    <comment ref="E19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -159,35 +135,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
--1 indicates cell 1 is all space negative wrt surface 1</t>
+The blanks between the surface numbers, - 1 2 - 3, define intersections of the space inside the cylinder and above the lower plane below the upper plane.</t>
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Patrick Dolloso:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>defines all space beyond surface 1 and below surface 2</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E20" authorId="0" shapeId="0">
+    <comment ref="E21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +159,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-indicates all space beyond surface 2</t>
+The union operator is what we use to define the "rest of the world" in configuration 1. Therefore, the sense of the surfaces in cell 2 is opposite to those defining cell 1 and the Boolean intersection operator is replaced by the union, 1: -2 : 3.</t>
         </r>
       </text>
     </comment>
@@ -365,62 +317,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="D24" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Patrick Dolloso:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-put 000 if naturally occuring</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F24" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Patrick Dolloso:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Material density
-* (+) = atom density [atoms/b-cm]
-* (-) = mass density [g/cc]</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="297">
   <si>
     <t>Index</t>
   </si>
@@ -518,18 +420,12 @@
     <t>Tally Specifications</t>
   </si>
   <si>
-    <t>so</t>
-  </si>
-  <si>
     <t>Problem Description</t>
   </si>
   <si>
     <t>Details:</t>
   </si>
   <si>
-    <t>A bare sphere of plutonium metal with a coating of nickel</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -551,16 +447,7 @@
     <t>Data</t>
   </si>
   <si>
-    <t>$ Pu sphere, centred at the origin</t>
-  </si>
-  <si>
     <t>Raw code (spacing might need adjustment)</t>
-  </si>
-  <si>
-    <t>$ Ni Coating + Pu Sphere</t>
-  </si>
-  <si>
-    <t>Spherical Coating (Thickness)</t>
   </si>
   <si>
     <t>QA</t>
@@ -691,9 +578,6 @@
     <t>z2</t>
   </si>
   <si>
-    <t>$ 1 point source @ origin (0,0,0)</t>
-  </si>
-  <si>
     <t>Ref:</t>
   </si>
   <si>
@@ -745,60 +629,21 @@
     <t>Density</t>
   </si>
   <si>
-    <t>N-239 (Atom density of Pu-239)</t>
-  </si>
-  <si>
-    <t>N-240 (Atom density of Pu-240)</t>
-  </si>
-  <si>
-    <t>N-241 (Atom density of Pu-241)</t>
-  </si>
-  <si>
-    <t>[atom/barn-cm]</t>
-  </si>
-  <si>
-    <t>N-Ga (Atom density of Ga)</t>
-  </si>
-  <si>
-    <t>[cm]</t>
-  </si>
-  <si>
-    <t>Radius</t>
-  </si>
-  <si>
-    <t>N-Ni (Atom density of Ni)</t>
-  </si>
-  <si>
     <t>Library</t>
   </si>
   <si>
     <t>.66c</t>
   </si>
   <si>
-    <t>Ga</t>
-  </si>
-  <si>
     <t>Raw Card</t>
   </si>
   <si>
-    <t>000</t>
-  </si>
-  <si>
     <t>$ Pu Sphere Material</t>
   </si>
   <si>
     <t>Card Entry</t>
   </si>
   <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>$ Ni Cover</t>
-  </si>
-  <si>
-    <t>Ni</t>
-  </si>
-  <si>
     <t>Periodic Table</t>
   </si>
   <si>
@@ -808,18 +653,6 @@
     <t>importance</t>
   </si>
   <si>
-    <t>1 -2</t>
-  </si>
-  <si>
-    <t>$ Pu sphere</t>
-  </si>
-  <si>
-    <t>$ Ni Coating</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>raw cell cards code</t>
   </si>
   <si>
@@ -829,33 +662,6 @@
     <t>imp:n=0</t>
   </si>
   <si>
-    <t>058</t>
-  </si>
-  <si>
-    <t>060</t>
-  </si>
-  <si>
-    <t>061</t>
-  </si>
-  <si>
-    <t>062</t>
-  </si>
-  <si>
-    <t>064</t>
-  </si>
-  <si>
-    <t>0.2622</t>
-  </si>
-  <si>
-    <t>0.0114</t>
-  </si>
-  <si>
-    <t>0.0363</t>
-  </si>
-  <si>
-    <t>0.0093</t>
-  </si>
-  <si>
     <t>Vised</t>
   </si>
   <si>
@@ -1334,6 +1140,81 @@
   </si>
   <si>
     <t>Notes: MCNP6 Primer Ex 2-3 (v0-1)</t>
+  </si>
+  <si>
+    <t>A bare (unreflected) Pu metal cylinder</t>
+  </si>
+  <si>
+    <t>$ Pu cylinder</t>
+  </si>
+  <si>
+    <t>cz</t>
+  </si>
+  <si>
+    <t>pz</t>
+  </si>
+  <si>
+    <t>$ Bottom of cylinder</t>
+  </si>
+  <si>
+    <t>$ Top of cylinder</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cylinder</t>
+  </si>
+  <si>
+    <t>Universe</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>g/cc</t>
+  </si>
+  <si>
+    <t>Pu-239</t>
+  </si>
+  <si>
+    <t>N-239</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>atoms/b-cm</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>Pu cyl</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>-1 2 -3</t>
+  </si>
+  <si>
+    <t>1:-2:3</t>
+  </si>
+  <si>
+    <t>$ 1 point source @ (0,0,8.6)</t>
   </si>
 </sst>
 </file>
@@ -1487,7 +1368,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1513,6 +1394,10 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1573,6 +1458,94 @@
         <a:xfrm>
           <a:off x="41910" y="201930"/>
           <a:ext cx="1394581" cy="1154530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>11510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Screen Clipping"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1828800"/>
+          <a:ext cx="2019475" cy="925910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>423108</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>179210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Screen Clipping"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2952750"/>
+          <a:ext cx="2290008" cy="1615580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2320,7 +2293,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2331,7 +2304,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>17</v>
@@ -2342,7 +2315,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -2387,7 +2360,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2397,7 +2370,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2417,7 +2390,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2432,7 +2405,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -2442,7 +2415,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2476,7 +2449,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -2528,43 +2501,43 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="F10" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H10" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="I10" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="M10" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="N10" s="15">
         <v>40012</v>
@@ -2575,342 +2548,342 @@
     </row>
     <row r="13" spans="1:23">
       <c r="B13" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="H13" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="I13" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="M13" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="N13" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="O13" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="P13" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="Q13" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="R13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="S13" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="B14" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="E14" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="F14" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="H14" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="I14">
         <v>50</v>
       </c>
       <c r="J14" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="K14" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="L14" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="M14" t="s">
         <v>13</v>
       </c>
       <c r="N14" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="O14" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="P14">
         <v>250</v>
       </c>
       <c r="Q14" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="R14" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="S14" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="T14">
         <v>5000</v>
       </c>
       <c r="U14" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="V14" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="W14" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="B15" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="E15" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="F15">
         <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="H15" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="I15" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="J15">
         <v>250615</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="M15" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="N15">
         <v>200</v>
       </c>
       <c r="O15" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="P15" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="Q15" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="R15">
         <v>1000623</v>
       </c>
       <c r="S15" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="T15" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="2:20">
       <c r="B18" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="D18" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="E18" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="F18" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="G18" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="H18" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="I18" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="J18" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="K18" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="L18" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="M18" t="s">
         <v>13</v>
       </c>
       <c r="N18" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="O18" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="P18">
         <v>1251238</v>
       </c>
       <c r="Q18" t="s">
+        <v>127</v>
+      </c>
+      <c r="R18" t="s">
+        <v>128</v>
+      </c>
+      <c r="S18" t="s">
+        <v>129</v>
+      </c>
+      <c r="T18" t="s">
         <v>159</v>
-      </c>
-      <c r="R18" t="s">
-        <v>160</v>
-      </c>
-      <c r="S18" t="s">
-        <v>161</v>
-      </c>
-      <c r="T18" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="19" spans="2:20">
       <c r="B19" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="C19" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="D19" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="E19" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="F19" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="H19" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="I19" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="J19" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="K19" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="L19" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="M19" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="N19" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="2:20">
       <c r="B22" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="2:20">
       <c r="B23" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="C23" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="D23" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="E23" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="F23" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="G23" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="H23" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="I23" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="J23" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="K23" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="2:20">
       <c r="B24" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="C24" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D24" s="9">
         <v>5.71</v>
       </c>
       <c r="E24" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" t="s">
         <v>181</v>
       </c>
-      <c r="F24" t="s">
-        <v>213</v>
-      </c>
       <c r="G24" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="H24" s="9">
         <v>1.78E-2</v>
@@ -2918,944 +2891,944 @@
     </row>
     <row r="25" spans="2:20">
       <c r="B25" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="2:20">
       <c r="B26" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="2:20">
       <c r="B27" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="C27" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="D27">
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="F27" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="G27" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="H27" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="I27" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="J27" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="2:20">
       <c r="B28" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="C28" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="G28" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="H28" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="I28" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="2:20">
       <c r="B29" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="C29" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="D29" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="E29" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="F29" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="G29" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="H29" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="I29" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="2:20">
       <c r="B30" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="C30" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="D30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="E30" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="F30" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="G30" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="H30" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="I30" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="J30" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="2:20">
       <c r="B31" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="2:20">
       <c r="B32" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="E32" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="F32" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="G32" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="2:24">
       <c r="B33" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="2:24">
       <c r="B34" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="E34" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="F34" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="G34" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="H34" t="s">
+        <v>176</v>
+      </c>
+      <c r="I34" t="s">
+        <v>203</v>
+      </c>
+      <c r="J34" t="s">
+        <v>204</v>
+      </c>
+      <c r="K34" t="s">
+        <v>142</v>
+      </c>
+      <c r="L34" t="s">
+        <v>125</v>
+      </c>
+      <c r="M34" t="s">
+        <v>205</v>
+      </c>
+      <c r="N34" t="s">
+        <v>206</v>
+      </c>
+      <c r="O34" t="s">
+        <v>207</v>
+      </c>
+      <c r="P34" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q34" t="s">
         <v>208</v>
       </c>
-      <c r="I34" t="s">
-        <v>235</v>
-      </c>
-      <c r="J34" t="s">
-        <v>236</v>
-      </c>
-      <c r="K34" t="s">
-        <v>174</v>
-      </c>
-      <c r="L34" t="s">
-        <v>157</v>
-      </c>
-      <c r="M34" t="s">
-        <v>237</v>
-      </c>
-      <c r="N34" t="s">
-        <v>238</v>
-      </c>
-      <c r="O34" t="s">
-        <v>239</v>
-      </c>
-      <c r="P34" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>240</v>
-      </c>
       <c r="R34" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="S34" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="T34" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="U34" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="2:24">
       <c r="B36" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="D36" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="E36" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="F36" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="G36" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="H36" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="I36" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="J36" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="K36" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="L36">
         <v>95</v>
       </c>
       <c r="M36" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="N36" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="O36" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="2:24">
       <c r="B37" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="D37" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="E37" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="F37" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="G37" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="H37" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="I37" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="J37" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="K37">
         <v>95</v>
       </c>
       <c r="L37" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="M37" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="N37" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="2:24">
       <c r="B38" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="D38" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="E38" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="F38" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="G38" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="H38" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="I38" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="J38" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="K38" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="L38">
         <v>95</v>
       </c>
       <c r="M38" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="N38" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="O38" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="2:24">
       <c r="B41" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="2:24">
       <c r="B42" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="C42" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="2:24">
       <c r="B43" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="C43" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="D43" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="E43" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="F43" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G43" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="H43" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="I43" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="J43" s="18">
         <v>1.0003500000000001</v>
       </c>
       <c r="K43" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="L43" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="M43" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="N43" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="O43" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="P43" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="Q43" s="18">
         <v>6.4999999999999997E-4</v>
       </c>
       <c r="R43" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="2:24">
       <c r="B44" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="C44" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="2:24">
       <c r="B45" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="C45" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="D45" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="E45" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="F45" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G45" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="H45">
         <v>99</v>
       </c>
       <c r="I45" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="J45" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="K45" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="L45" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="M45" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="N45">
         <v>0.99968999999999997</v>
       </c>
       <c r="O45" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="P45" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="Q45">
         <v>0.99904999999999999</v>
       </c>
       <c r="R45" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="S45" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="T45" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="U45">
         <v>0.99861999999999995</v>
       </c>
       <c r="V45" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="W45">
         <v>1.0020800000000001</v>
       </c>
       <c r="X45" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="2:24">
       <c r="B46" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="C46" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="2:24">
       <c r="B47" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="C47" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="D47" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="E47" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="F47" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="G47" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="H47" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="I47" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="J47" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="K47" s="9">
         <v>3.7773999999999998E-9</v>
       </c>
       <c r="L47" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="M47" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="N47" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="O47" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="P47" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="Q47" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="R47" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="S47" s="9">
         <v>4.5183000000000002E-12</v>
       </c>
       <c r="T47" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="2:24">
       <c r="B48" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="C48" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="2:21">
       <c r="B49" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="C49" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="D49" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="E49" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="F49" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="G49" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="H49" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="I49" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="J49" s="9">
         <v>1.9137</v>
       </c>
       <c r="K49" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="L49" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="2:21">
       <c r="B50" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="C50" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="D50" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="E50" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="F50" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="G50" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="H50" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="I50" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="J50" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="K50" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="L50" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="M50" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="N50" s="9">
         <v>1.2523</v>
       </c>
       <c r="O50" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="P50" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="2:21">
       <c r="B51" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="C51" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="2:21">
       <c r="B52" t="s">
+        <v>224</v>
+      </c>
+      <c r="C52" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" t="s">
+        <v>249</v>
+      </c>
+      <c r="E52" t="s">
+        <v>148</v>
+      </c>
+      <c r="F52" t="s">
+        <v>250</v>
+      </c>
+      <c r="G52" t="s">
+        <v>251</v>
+      </c>
+      <c r="H52" t="s">
+        <v>252</v>
+      </c>
+      <c r="I52" t="s">
+        <v>151</v>
+      </c>
+      <c r="J52" t="s">
+        <v>253</v>
+      </c>
+      <c r="K52" t="s">
+        <v>125</v>
+      </c>
+      <c r="L52" t="s">
+        <v>254</v>
+      </c>
+      <c r="M52" t="s">
+        <v>255</v>
+      </c>
+      <c r="N52" t="s">
+        <v>145</v>
+      </c>
+      <c r="O52" t="s">
         <v>256</v>
       </c>
-      <c r="C52" t="s">
-        <v>157</v>
-      </c>
-      <c r="D52" t="s">
-        <v>281</v>
-      </c>
-      <c r="E52" t="s">
-        <v>180</v>
-      </c>
-      <c r="F52" t="s">
-        <v>282</v>
-      </c>
-      <c r="G52" t="s">
-        <v>283</v>
-      </c>
-      <c r="H52" t="s">
-        <v>284</v>
-      </c>
-      <c r="I52" t="s">
-        <v>183</v>
-      </c>
-      <c r="J52" t="s">
-        <v>285</v>
-      </c>
-      <c r="K52" t="s">
-        <v>157</v>
-      </c>
-      <c r="L52" t="s">
-        <v>286</v>
-      </c>
-      <c r="M52" t="s">
-        <v>287</v>
-      </c>
-      <c r="N52" t="s">
-        <v>177</v>
-      </c>
-      <c r="O52" t="s">
-        <v>288</v>
-      </c>
       <c r="P52" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="Q52" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="R52" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="S52" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="2:21">
       <c r="B53" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="C53" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="D53" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="E53" s="17">
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="G53" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="H53" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="I53">
         <v>100</v>
       </c>
       <c r="J53" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="K53" s="17">
         <v>2.2100000000000002E-2</v>
       </c>
       <c r="L53" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="M53" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="N53" s="17">
         <v>0.97789999999999999</v>
       </c>
       <c r="O53" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="2:21">
       <c r="B54" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="C54" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="2:21">
       <c r="B55" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="C55" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="D55" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="E55" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="F55" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="G55" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="H55" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="I55" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="J55" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="K55" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="L55" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="M55" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="N55" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="O55" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="P55" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="Q55" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="R55" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="S55" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="T55" s="9">
         <v>3.0510000000000002</v>
       </c>
       <c r="U55" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="2:21">
       <c r="B56" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="C56" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="D56" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="E56" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="F56" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="G56" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="H56" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="I56" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="J56" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="K56" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="L56" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="M56" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="N56" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="O56" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="P56" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="Q56" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="R56" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="S56" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="T56" s="9">
         <v>3.0501</v>
       </c>
       <c r="U56" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="2:21">
       <c r="B57" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="C57" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="2:21">
       <c r="B58" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="C58" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="D58" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="E58" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="F58" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="G58" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="H58" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="I58" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="J58" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="K58" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="L58" s="18">
         <v>3.1549999999999998</v>
       </c>
       <c r="M58" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="2:21">
       <c r="B59" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="C59" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="2:21">
       <c r="B60" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -3881,111 +3854,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25.7890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.62890625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
       <c r="B10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11">
-        <v>6.3849</v>
-      </c>
-      <c r="C11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="9">
-        <v>3.7046999999999997E-2</v>
-      </c>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="9"/>
       <c r="C12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="9">
-        <v>1.7512000000000001E-3</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="D12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E12" t="s">
+        <v>286</v>
+      </c>
+      <c r="F12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="9"/>
       <c r="C13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="9">
-        <v>1.1674E-4</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="D13" t="s">
+        <v>287</v>
+      </c>
+      <c r="E13">
+        <v>15.8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="9"/>
       <c r="C14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="9">
-        <v>1.3752E-3</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="D14" t="s">
+        <v>287</v>
+      </c>
+      <c r="E14" s="9">
+        <v>3.9801999999999997E-2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="9"/>
       <c r="C15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16">
-        <v>1.2699999999999999E-2</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D15" t="s">
+        <v>290</v>
+      </c>
+      <c r="E15">
+        <v>4.9349999999999996</v>
+      </c>
+      <c r="F15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="9">
-        <v>9.3121999999999996E-2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>110</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D16" t="s">
+        <v>293</v>
+      </c>
+      <c r="E16">
+        <v>17.273</v>
+      </c>
+      <c r="F16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3995,9 +3970,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:H21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -4023,22 +4000,22 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4046,7 +4023,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>13</v>
@@ -4061,48 +4038,90 @@
         <v>30</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18">
+      <c r="A18" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19" t="str">
+        <f>A18&amp;" "&amp;C18&amp;" "&amp;D18&amp;" "&amp;E18&amp;" "&amp;F18&amp;" "&amp;G18&amp;" "&amp;B18</f>
+        <v>c      Cylinder</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="19">
         <v>1</v>
       </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18">
-        <f>General!B11</f>
-        <v>6.3849</v>
-      </c>
-      <c r="H18" t="str">
-        <f>A18&amp;" "&amp;C18&amp;" "&amp;D18&amp;" "&amp;E18&amp;" "&amp;F18&amp;" "&amp;G18&amp;" "&amp;B18</f>
-        <v>1 so    6.3849 $ Pu sphere, centred at the origin</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19">
+      <c r="B19" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19">
+        <v>4.9349999999999996</v>
+      </c>
+      <c r="H19" s="19" t="str">
+        <f>A19&amp;" "&amp;C19&amp;" "&amp;D19&amp;" "&amp;E19&amp;" "&amp;F19&amp;" "&amp;G19&amp;" "&amp;B19</f>
+        <v>1 cz    4.935 $ Pu cylinder</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="19">
         <v>2</v>
       </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19">
-        <f>General!B11+General!B16</f>
-        <v>6.3975999999999997</v>
-      </c>
-      <c r="H19" t="str">
-        <f>A19&amp;" "&amp;C19&amp;" "&amp;D19&amp;" "&amp;E19&amp;" "&amp;F19&amp;" "&amp;G19&amp;" "&amp;B19</f>
-        <v>2 so    6.3976 $ Ni Coating + Pu Sphere</v>
+      <c r="B20" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19">
+        <v>0</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19" t="str">
+        <f>A20&amp;" "&amp;C20&amp;" "&amp;D20&amp;" "&amp;E20&amp;" "&amp;F20&amp;" "&amp;G20&amp;" "&amp;B20</f>
+        <v>2 pz   0  $ Bottom of cylinder</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="19">
+        <v>3</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19">
+        <v>17.273</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19" t="str">
+        <f>A21&amp;" "&amp;C21&amp;" "&amp;D21&amp;" "&amp;E21&amp;" "&amp;F21&amp;" "&amp;G21&amp;" "&amp;B21</f>
+        <v>3 pz   17.273  $ Top of cylinder</v>
       </c>
     </row>
   </sheetData>
@@ -4117,10 +4136,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H21" sqref="H18:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4150,96 +4169,96 @@
         <v>12</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18">
-        <v>1</v>
+      <c r="A18" t="s">
+        <v>278</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9">
-        <f>SUM(General!B12:B15)</f>
-        <v>4.0290139999999995E-2</v>
-      </c>
-      <c r="E18" s="13">
-        <v>-1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>133</v>
+        <v>279</v>
       </c>
       <c r="H18" t="str">
         <f>A18&amp;" "&amp;C18&amp;" "&amp;D18&amp;" "&amp;E18&amp;" "&amp;F18&amp;" "&amp;G18&amp;" "&amp;B18</f>
-        <v>1 1 0.04029014 -1  imp:n=1 $ Pu sphere</v>
+        <v>c      Cylinder</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>273</v>
       </c>
       <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" s="9">
-        <f>General!B17</f>
-        <v>9.3121999999999996E-2</v>
+        <v>1</v>
+      </c>
+      <c r="D19" s="20">
+        <v>-15.8</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>128</v>
+        <v>294</v>
       </c>
       <c r="G19" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" ref="H19:H20" si="0">A19&amp;" "&amp;C19&amp;" "&amp;D19&amp;" "&amp;E19&amp;" "&amp;F19&amp;" "&amp;G19&amp;" "&amp;B19</f>
-        <v>2 2 0.093122 1 -2  imp:n=1 $ Ni Coating</v>
+        <f>A19&amp;" "&amp;C19&amp;" "&amp;D19&amp;" "&amp;E19&amp;" "&amp;F19&amp;" "&amp;G19&amp;" "&amp;B19</f>
+        <v>1 1 -15.8 -1 2 -3  imp:n=1 $ Pu cylinder</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20">
+      <c r="A20" t="s">
+        <v>278</v>
+      </c>
+      <c r="B20" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="13"/>
+      <c r="H20" t="str">
+        <f t="shared" ref="H20:H21" si="0">A20&amp;" "&amp;C20&amp;" "&amp;D20&amp;" "&amp;E20&amp;" "&amp;F20&amp;" "&amp;G20&amp;" "&amp;B20</f>
+        <v>c      Universe</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
         <v>999</v>
       </c>
-      <c r="B20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20">
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21">
         <v>0</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" t="s">
-        <v>134</v>
-      </c>
-      <c r="H20" t="str">
+      <c r="E21" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="G21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" t="str">
         <f t="shared" si="0"/>
-        <v>999 0  2  imp:n=0 $ Void Universe</v>
+        <v>999 0  1:-2:3  imp:n=0 $ Void Universe</v>
       </c>
     </row>
   </sheetData>
@@ -4257,7 +4276,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4267,7 +4286,7 @@
         <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4275,27 +4294,27 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -4314,7 +4333,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4326,10 +4345,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4337,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4347,46 +4366,46 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="72">
       <c r="A11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C18">
         <v>5000</v>
@@ -4420,8 +4439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4436,7 +4455,7 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4451,81 +4470,81 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="I26" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>296</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -4534,11 +4553,11 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="I27" t="str">
         <f>A27&amp;" "&amp;C27&amp;" "&amp;D27&amp;" "&amp;E27&amp;" "&amp;B27</f>
-        <v>ksrc 0 0 0 $ 1 point source @ origin (0,0,0)</v>
+        <v>ksrc 0 0 8.6 $ 1 point source @ (0,0,8.6)</v>
       </c>
     </row>
   </sheetData>
@@ -4553,10 +4572,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:A3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4569,10 +4588,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4580,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4588,85 +4607,76 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>104</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="E11" t="str">
-        <f>A11&amp;" "&amp;B32&amp;" "&amp;B11</f>
-        <v>m1 94239.66c 0.037047 94240.66c 0.0017512 94241.66c 0.00011674 31000.66c 0.0013752 $ Pu Sphere Material</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" t="str">
-        <f>A12&amp;" "&amp;B33&amp;" "&amp;B12</f>
-        <v>m2 28058.66c 0.6808 28060.66c 0.2622 28061.66c 0.0114 28062.66c 0.0363 28064.66c 0.0093 $ Ni Cover</v>
+        <f>A11&amp;" "&amp;B21&amp;" "&amp;D11&amp;" "&amp;B11</f>
+        <v>m1 94239.66c  1 $ Pu Sphere Material</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
         <v>101</v>
       </c>
-      <c r="E16" t="s">
-        <v>115</v>
-      </c>
       <c r="F16" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="G17" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4674,7 +4684,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C18">
         <v>94</v>
@@ -4686,282 +4696,30 @@
         <f>C18&amp;D18&amp;$F$16</f>
         <v>94239.66c</v>
       </c>
-      <c r="F18" s="10">
-        <f>General!B12</f>
-        <v>3.7046999999999997E-2</v>
-      </c>
+      <c r="F18" s="10"/>
       <c r="G18" t="str">
         <f>E18&amp;" "&amp;F18</f>
-        <v>94239.66c 0.037047</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19">
-        <v>94</v>
-      </c>
-      <c r="D19" s="14">
-        <v>240</v>
-      </c>
-      <c r="E19" t="str">
-        <f>C19&amp;D19&amp;$F$16</f>
-        <v>94240.66c</v>
-      </c>
-      <c r="F19" s="10">
-        <f>General!B13</f>
-        <v>1.7512000000000001E-3</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" ref="G19:G21" si="0">E19&amp;" "&amp;F19</f>
-        <v>94240.66c 0.0017512</v>
+        <v xml:space="preserve">94239.66c </v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20">
-        <v>94</v>
-      </c>
-      <c r="D20" s="14">
-        <v>241</v>
-      </c>
-      <c r="E20" t="str">
-        <f>C20&amp;D20&amp;$F$16</f>
-        <v>94241.66c</v>
-      </c>
-      <c r="F20" s="10">
-        <f>General!B14</f>
-        <v>1.1674E-4</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="0"/>
-        <v>94241.66c 0.00011674</v>
-      </c>
+      <c r="A20" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21">
-        <v>31</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" t="str">
-        <f>C21&amp;D21&amp;$F$16</f>
-        <v>31000.66c</v>
-      </c>
-      <c r="F21" s="10">
-        <f>General!B15</f>
-        <v>1.3752E-3</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="0"/>
-        <v>31000.66c 0.0013752</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25">
-        <v>28</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="E25" t="str">
-        <f>C25&amp;D25&amp;$F$16</f>
-        <v>28058.66c</v>
-      </c>
-      <c r="F25" s="14">
-        <v>0.68079999999999996</v>
-      </c>
-      <c r="G25" t="str">
-        <f>E25&amp;" "&amp;F25</f>
-        <v>28058.66c 0.6808</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26">
-        <v>28</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" ref="E26:E29" si="1">C26&amp;D26&amp;$F$16</f>
-        <v>28060.66c</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" ref="G26:G29" si="2">E26&amp;" "&amp;F26</f>
-        <v>28060.66c 0.2622</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27">
-        <v>28</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="1"/>
-        <v>28061.66c</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="2"/>
-        <v>28061.66c 0.0114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28">
-        <v>28</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="1"/>
-        <v>28062.66c</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" si="2"/>
-        <v>28062.66c 0.0363</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29">
-        <v>28</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="1"/>
-        <v>28064.66c</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="2"/>
-        <v>28064.66c 0.0093</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" t="str">
-        <f>G18&amp;" "&amp;G19&amp;" "&amp;G20&amp;" "&amp;G21</f>
-        <v>94239.66c 0.037047 94240.66c 0.0017512 94241.66c 0.00011674 31000.66c 0.0013752</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" t="str">
-        <f>G25&amp;" "&amp;G26&amp;" "&amp;G27&amp;" "&amp;G28&amp;" "&amp;G29</f>
-        <v>28058.66c 0.6808 28060.66c 0.2622 28061.66c 0.0114 28062.66c 0.0363 28064.66c 0.0093</v>
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" t="str">
+        <f>E18&amp;" "&amp;F18</f>
+        <v xml:space="preserve">94239.66c </v>
       </c>
     </row>
   </sheetData>

--- a/MCNP Example Runs/Ex2-3/Ex2-3.xlsx
+++ b/MCNP Example Runs/Ex2-3/Ex2-3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14388" windowHeight="3960" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14388" windowHeight="3960" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="6" r:id="rId1"/>
@@ -322,7 +322,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="365">
   <si>
     <t>Index</t>
   </si>
@@ -674,27 +674,9 @@
     <t>for:</t>
   </si>
   <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>1-2:</t>
-  </si>
-  <si>
     <t>Bare</t>
   </si>
   <si>
-    <t>sphere</t>
-  </si>
-  <si>
-    <t>w/</t>
-  </si>
-  <si>
-    <t>Ni,</t>
-  </si>
-  <si>
-    <t>PMF-001</t>
-  </si>
-  <si>
     <t>probid</t>
   </si>
   <si>
@@ -1037,12 +1019,6 @@
     <t>are</t>
   </si>
   <si>
-    <t>1.00101,</t>
-  </si>
-  <si>
-    <t>1.00165,</t>
-  </si>
-  <si>
     <t>(col/abs/tl)</t>
   </si>
   <si>
@@ -1215,6 +1191,234 @@
   </si>
   <si>
     <t>$ 1 point source @ (0,0,8.6)</t>
+  </si>
+  <si>
+    <t>Ex</t>
+  </si>
+  <si>
+    <t>2-3:</t>
+  </si>
+  <si>
+    <t>(unreflected)</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>cylinder</t>
+  </si>
+  <si>
+    <t>1.01469,</t>
+  </si>
+  <si>
+    <t>1.01534,</t>
+  </si>
+  <si>
+    <t>keffs,</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>deviations,</t>
+  </si>
+  <si>
+    <t>estimator</t>
+  </si>
+  <si>
+    <t>corr</t>
+  </si>
+  <si>
+    <t>collision</t>
+  </si>
+  <si>
+    <t>absorption</t>
+  </si>
+  <si>
+    <t>track</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>col/absorp</t>
+  </si>
+  <si>
+    <t>abs/trk</t>
+  </si>
+  <si>
+    <t>len</t>
+  </si>
+  <si>
+    <t>col/trk</t>
+  </si>
+  <si>
+    <t>col/abs/trk</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>largest</t>
+  </si>
+  <si>
+    <t>each</t>
+  </si>
+  <si>
+    <t>occurred</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>cycle,</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>be:</t>
+  </si>
+  <si>
+    <t>lifetimes,</t>
+  </si>
+  <si>
+    <t>(sec):</t>
+  </si>
+  <si>
+    <t>std.</t>
+  </si>
+  <si>
+    <t>dev.</t>
+  </si>
+  <si>
+    <t>estimates</t>
+  </si>
+  <si>
+    <t>lifetimes</t>
+  </si>
+  <si>
+    <t>escape</t>
+  </si>
+  <si>
+    <t>capture</t>
+  </si>
+  <si>
+    <t>lifetime(abs)</t>
+  </si>
+  <si>
+    <t>lifetime(c/a/t)</t>
+  </si>
+  <si>
+    <t>1average</t>
+  </si>
+  <si>
+    <t>different</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>sizes</t>
+  </si>
+  <si>
+    <t>estimators</t>
+  </si>
+  <si>
+    <t>deviations</t>
+  </si>
+  <si>
+    <t>k(c/a/t)</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>batches</t>
+  </si>
+  <si>
+    <t>k(col)</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>k(abs)</t>
+  </si>
+  <si>
+    <t>k(trk)</t>
+  </si>
+  <si>
+    <t>co/ab/trk</t>
+  </si>
+  <si>
+    <t>|95/95/95|</t>
+  </si>
+  <si>
+    <t>1.01271-1.01534</t>
+  </si>
+  <si>
+    <t>1.01229-1.01577</t>
+  </si>
+  <si>
+    <t>|99/99/95|</t>
+  </si>
+  <si>
+    <t>1.01259-1.01541</t>
+  </si>
+  <si>
+    <t>1.01213-1.01587</t>
+  </si>
+  <si>
+    <t>1.01276-1.01573</t>
+  </si>
+  <si>
+    <t>1.01227-1.01623</t>
+  </si>
+  <si>
+    <t>1.01254-1.01593</t>
+  </si>
+  <si>
+    <t>1.01197-1.01651</t>
+  </si>
+  <si>
+    <t>1.01273-1.01585</t>
+  </si>
+  <si>
+    <t>1.01217-1.01641</t>
+  </si>
+  <si>
+    <t>1.01239-1.01605</t>
+  </si>
+  <si>
+    <t>1.01171-1.01673</t>
+  </si>
+  <si>
+    <t>1.01134-1.01627</t>
+  </si>
+  <si>
+    <t>1.01015-1.01745</t>
+  </si>
+  <si>
+    <t>1.01071-1.01774</t>
+  </si>
+  <si>
+    <t>1.00871-1.01974</t>
+  </si>
+  <si>
+    <t>1.01151-1.01604</t>
+  </si>
+  <si>
+    <t>1.00855-1.01899</t>
+  </si>
+  <si>
+    <t>1.00857-1.01798</t>
+  </si>
+  <si>
+    <t>0.98972-1.03682</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1572,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1398,6 +1602,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1985,6 +2190,49 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
+      <xdr:rowOff>3811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>621030</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>168081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="552451"/>
+          <a:ext cx="3181350" cy="3273230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -2315,7 +2563,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -2442,7 +2690,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2467,15 +2715,16 @@
     <hyperlink ref="A2" location="Index!A1" display="Index"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X60"/>
+  <dimension ref="A1:Y121"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2510,1325 +2759,3026 @@
         <v>115</v>
       </c>
       <c r="D10" t="s">
+        <v>289</v>
+      </c>
+      <c r="E10" t="s">
+        <v>290</v>
+      </c>
+      <c r="F10" t="s">
         <v>116</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
+        <v>291</v>
+      </c>
+      <c r="H10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" t="s">
+        <v>292</v>
+      </c>
+      <c r="J10" t="s">
+        <v>293</v>
+      </c>
+      <c r="K10" t="s">
         <v>117</v>
       </c>
-      <c r="F10" t="s">
+      <c r="L10" t="s">
         <v>118</v>
       </c>
-      <c r="G10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" t="s">
-        <v>119</v>
-      </c>
-      <c r="I10" t="s">
-        <v>120</v>
-      </c>
-      <c r="J10" t="s">
-        <v>121</v>
-      </c>
-      <c r="K10" t="s">
-        <v>122</v>
-      </c>
-      <c r="L10" t="s">
-        <v>123</v>
-      </c>
-      <c r="M10" t="s">
-        <v>124</v>
-      </c>
-      <c r="N10" s="15">
+      <c r="M10" s="15">
         <v>40012</v>
       </c>
-      <c r="O10" s="16">
-        <v>0.72502314814814817</v>
-      </c>
+      <c r="N10" s="16">
+        <v>0.79781250000000004</v>
+      </c>
+      <c r="O10" s="16"/>
     </row>
     <row r="13" spans="1:23">
       <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" t="s">
         <v>125</v>
       </c>
-      <c r="C13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" t="s">
-        <v>131</v>
-      </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="s">
+        <v>127</v>
+      </c>
+      <c r="N13" t="s">
+        <v>128</v>
+      </c>
+      <c r="O13" t="s">
         <v>129</v>
       </c>
-      <c r="L13" t="s">
-        <v>132</v>
-      </c>
-      <c r="M13" t="s">
-        <v>133</v>
-      </c>
-      <c r="N13" t="s">
-        <v>134</v>
-      </c>
-      <c r="O13" t="s">
-        <v>135</v>
-      </c>
       <c r="P13" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="Q13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="R13" t="s">
         <v>65</v>
       </c>
       <c r="S13" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="B14" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H14" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I14">
         <v>50</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M14" t="s">
         <v>13</v>
       </c>
       <c r="N14" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="P14">
         <v>250</v>
       </c>
       <c r="Q14" t="s">
+        <v>138</v>
+      </c>
+      <c r="R14" t="s">
+        <v>143</v>
+      </c>
+      <c r="S14" t="s">
         <v>144</v>
-      </c>
-      <c r="R14" t="s">
-        <v>149</v>
-      </c>
-      <c r="S14" t="s">
-        <v>150</v>
       </c>
       <c r="T14">
         <v>5000</v>
       </c>
       <c r="U14" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="V14" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="W14" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="B15" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E15" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F15">
         <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H15" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J15">
-        <v>250615</v>
+        <v>250347</v>
       </c>
       <c r="K15" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L15" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M15" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="N15">
         <v>200</v>
       </c>
       <c r="O15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P15" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="Q15" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="R15">
-        <v>1000623</v>
+        <v>999718</v>
       </c>
       <c r="S15" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="T15" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="2:20">
       <c r="B18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" t="s">
         <v>154</v>
       </c>
-      <c r="C18" t="s">
-        <v>160</v>
-      </c>
       <c r="D18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" t="s">
         <v>155</v>
       </c>
-      <c r="E18" t="s">
-        <v>161</v>
-      </c>
       <c r="F18" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H18" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I18" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J18" t="s">
         <v>113</v>
       </c>
       <c r="K18" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="L18" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="M18" t="s">
         <v>13</v>
       </c>
       <c r="N18" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="O18" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="P18">
-        <v>1251238</v>
+        <v>1250065</v>
       </c>
       <c r="Q18" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="R18" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="S18" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="T18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="2:20">
       <c r="B19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" t="s">
+        <v>163</v>
+      </c>
+      <c r="I19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>121</v>
+      </c>
+      <c r="L19" t="s">
+        <v>122</v>
+      </c>
+      <c r="M19" t="s">
+        <v>123</v>
+      </c>
+      <c r="N19" t="s">
         <v>165</v>
-      </c>
-      <c r="C19" t="s">
-        <v>166</v>
-      </c>
-      <c r="D19" t="s">
-        <v>149</v>
-      </c>
-      <c r="E19" t="s">
-        <v>167</v>
-      </c>
-      <c r="F19" t="s">
-        <v>168</v>
-      </c>
-      <c r="G19" t="s">
-        <v>134</v>
-      </c>
-      <c r="H19" t="s">
-        <v>169</v>
-      </c>
-      <c r="I19" t="s">
-        <v>145</v>
-      </c>
-      <c r="J19" t="s">
-        <v>170</v>
-      </c>
-      <c r="K19" t="s">
-        <v>127</v>
-      </c>
-      <c r="L19" t="s">
-        <v>128</v>
-      </c>
-      <c r="M19" t="s">
-        <v>129</v>
-      </c>
-      <c r="N19" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="22" spans="2:20">
       <c r="B22" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="2:20">
       <c r="B23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" t="s">
+        <v>171</v>
+      </c>
+      <c r="I23" t="s">
         <v>172</v>
       </c>
-      <c r="C23" t="s">
+      <c r="J23" t="s">
+        <v>142</v>
+      </c>
+      <c r="K23" t="s">
         <v>173</v>
-      </c>
-      <c r="D23" t="s">
-        <v>174</v>
-      </c>
-      <c r="E23" t="s">
-        <v>175</v>
-      </c>
-      <c r="F23" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" t="s">
-        <v>177</v>
-      </c>
-      <c r="I23" t="s">
-        <v>178</v>
-      </c>
-      <c r="J23" t="s">
-        <v>148</v>
-      </c>
-      <c r="K23" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="24" spans="2:20">
       <c r="B24" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C24" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D24" s="9">
-        <v>5.71</v>
+        <v>6.13</v>
       </c>
       <c r="E24" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F24" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G24" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H24" s="9">
-        <v>1.78E-2</v>
+        <v>2.0199999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="2:20">
       <c r="B25" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="2:20">
       <c r="B26" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="2:20">
       <c r="B27" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C27" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F27" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G27" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H27" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I27" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="J27" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="2:20">
       <c r="B28" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C28" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D28" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G28" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H28" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I28" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="2:20">
       <c r="B29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" t="s">
         <v>172</v>
       </c>
-      <c r="C29" t="s">
-        <v>175</v>
-      </c>
-      <c r="D29" t="s">
-        <v>176</v>
-      </c>
-      <c r="E29" t="s">
-        <v>125</v>
-      </c>
-      <c r="F29" t="s">
-        <v>177</v>
-      </c>
-      <c r="G29" t="s">
-        <v>178</v>
-      </c>
       <c r="H29" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I29" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="2:20">
       <c r="B30" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C30" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D30" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E30" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F30" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G30" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H30" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I30" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="J30" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="2:20">
       <c r="B31" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="2:20">
       <c r="B32" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E32" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F32" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G32" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="2:24">
       <c r="B33" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="2:24">
       <c r="B34" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
         <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F34" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" t="s">
+        <v>196</v>
+      </c>
+      <c r="H34" t="s">
+        <v>170</v>
+      </c>
+      <c r="I34" t="s">
+        <v>197</v>
+      </c>
+      <c r="J34" t="s">
+        <v>198</v>
+      </c>
+      <c r="K34" t="s">
+        <v>136</v>
+      </c>
+      <c r="L34" t="s">
+        <v>119</v>
+      </c>
+      <c r="M34" t="s">
+        <v>199</v>
+      </c>
+      <c r="N34" t="s">
+        <v>200</v>
+      </c>
+      <c r="O34" t="s">
         <v>201</v>
       </c>
-      <c r="G34" t="s">
+      <c r="P34" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q34" t="s">
         <v>202</v>
-      </c>
-      <c r="H34" t="s">
-        <v>176</v>
-      </c>
-      <c r="I34" t="s">
-        <v>203</v>
-      </c>
-      <c r="J34" t="s">
-        <v>204</v>
-      </c>
-      <c r="K34" t="s">
-        <v>142</v>
-      </c>
-      <c r="L34" t="s">
-        <v>125</v>
-      </c>
-      <c r="M34" t="s">
-        <v>205</v>
-      </c>
-      <c r="N34" t="s">
-        <v>206</v>
-      </c>
-      <c r="O34" t="s">
-        <v>207</v>
-      </c>
-      <c r="P34" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>208</v>
       </c>
       <c r="R34" t="s">
         <v>113</v>
       </c>
       <c r="S34" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="T34" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="U34" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="2:24">
       <c r="B36" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D36" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E36" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F36" t="s">
+        <v>203</v>
+      </c>
+      <c r="G36" t="s">
+        <v>207</v>
+      </c>
+      <c r="H36" t="s">
+        <v>208</v>
+      </c>
+      <c r="I36" t="s">
         <v>209</v>
       </c>
-      <c r="G36" t="s">
-        <v>213</v>
-      </c>
-      <c r="H36" t="s">
-        <v>214</v>
-      </c>
-      <c r="I36" t="s">
-        <v>215</v>
-      </c>
       <c r="J36" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K36" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="L36">
         <v>95</v>
       </c>
       <c r="M36" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="N36" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="O36" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="2:24">
       <c r="B37" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D37" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E37" t="s">
+        <v>203</v>
+      </c>
+      <c r="F37" t="s">
+        <v>207</v>
+      </c>
+      <c r="G37" t="s">
+        <v>208</v>
+      </c>
+      <c r="H37" t="s">
         <v>209</v>
       </c>
-      <c r="F37" t="s">
-        <v>213</v>
-      </c>
-      <c r="G37" t="s">
-        <v>214</v>
-      </c>
-      <c r="H37" t="s">
-        <v>215</v>
-      </c>
       <c r="I37" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="J37" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="K37">
         <v>95</v>
       </c>
       <c r="L37" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M37" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="N37" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="2:24">
       <c r="B38" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D38" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E38" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F38" t="s">
+        <v>203</v>
+      </c>
+      <c r="G38" t="s">
+        <v>207</v>
+      </c>
+      <c r="H38" t="s">
+        <v>208</v>
+      </c>
+      <c r="I38" t="s">
         <v>209</v>
       </c>
-      <c r="G38" t="s">
-        <v>213</v>
-      </c>
-      <c r="H38" t="s">
-        <v>214</v>
-      </c>
-      <c r="I38" t="s">
-        <v>215</v>
-      </c>
       <c r="J38" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K38" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="L38">
         <v>95</v>
       </c>
       <c r="M38" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="N38" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="O38" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="2:24">
       <c r="B41" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="2:24">
       <c r="B42" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C42" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="2:24">
       <c r="B43" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D43" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E43" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F43" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G43" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H43" t="s">
         <v>113</v>
       </c>
       <c r="I43" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J43" s="18">
-        <v>1.0003500000000001</v>
+        <v>1.01403</v>
       </c>
       <c r="K43" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="L43" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M43" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="N43" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="O43" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P43" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="Q43" s="18">
-        <v>6.4999999999999997E-4</v>
+        <v>6.6E-4</v>
       </c>
       <c r="R43" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="2:24">
       <c r="B44" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C44" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="2:24">
       <c r="B45" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D45" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" t="s">
         <v>226</v>
       </c>
-      <c r="E45" t="s">
-        <v>232</v>
-      </c>
       <c r="F45" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G45" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H45">
         <v>99</v>
       </c>
       <c r="I45" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J45" t="s">
         <v>113</v>
       </c>
       <c r="K45" t="s">
+        <v>212</v>
+      </c>
+      <c r="L45" t="s">
+        <v>229</v>
+      </c>
+      <c r="M45" t="s">
+        <v>230</v>
+      </c>
+      <c r="N45">
+        <v>1.0133700000000001</v>
+      </c>
+      <c r="O45" t="s">
+        <v>136</v>
+      </c>
+      <c r="P45" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q45">
+        <v>1.01271</v>
+      </c>
+      <c r="R45" t="s">
+        <v>136</v>
+      </c>
+      <c r="S45" t="s">
+        <v>295</v>
+      </c>
+      <c r="T45" t="s">
+        <v>139</v>
+      </c>
+      <c r="U45">
+        <v>1.0122899999999999</v>
+      </c>
+      <c r="V45" t="s">
+        <v>136</v>
+      </c>
+      <c r="W45">
+        <v>1.0157700000000001</v>
+      </c>
+      <c r="X45" t="s">
         <v>218</v>
-      </c>
-      <c r="L45" t="s">
-        <v>235</v>
-      </c>
-      <c r="M45" t="s">
-        <v>236</v>
-      </c>
-      <c r="N45">
-        <v>0.99968999999999997</v>
-      </c>
-      <c r="O45" t="s">
-        <v>142</v>
-      </c>
-      <c r="P45" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q45">
-        <v>0.99904999999999999</v>
-      </c>
-      <c r="R45" t="s">
-        <v>142</v>
-      </c>
-      <c r="S45" t="s">
-        <v>238</v>
-      </c>
-      <c r="T45" t="s">
-        <v>145</v>
-      </c>
-      <c r="U45">
-        <v>0.99861999999999995</v>
-      </c>
-      <c r="V45" t="s">
-        <v>142</v>
-      </c>
-      <c r="W45">
-        <v>1.0020800000000001</v>
-      </c>
-      <c r="X45" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="46" spans="2:24">
       <c r="B46" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C46" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="2:24">
       <c r="B47" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" t="s">
+        <v>219</v>
+      </c>
+      <c r="E47" t="s">
+        <v>221</v>
+      </c>
+      <c r="F47" t="s">
+        <v>231</v>
+      </c>
+      <c r="G47" t="s">
+        <v>232</v>
+      </c>
+      <c r="H47" t="s">
+        <v>233</v>
+      </c>
+      <c r="I47" t="s">
+        <v>234</v>
+      </c>
+      <c r="J47" t="s">
+        <v>118</v>
+      </c>
+      <c r="K47" s="9">
+        <v>3.6192000000000001E-9</v>
+      </c>
+      <c r="L47" t="s">
+        <v>235</v>
+      </c>
+      <c r="M47" t="s">
+        <v>143</v>
+      </c>
+      <c r="N47" t="s">
+        <v>223</v>
+      </c>
+      <c r="O47" t="s">
+        <v>220</v>
+      </c>
+      <c r="P47" t="s">
         <v>224</v>
       </c>
-      <c r="C47" t="s">
-        <v>125</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="Q47" t="s">
         <v>225</v>
       </c>
-      <c r="E47" t="s">
-        <v>227</v>
-      </c>
-      <c r="F47" t="s">
-        <v>239</v>
-      </c>
-      <c r="G47" t="s">
-        <v>240</v>
-      </c>
-      <c r="H47" t="s">
-        <v>241</v>
-      </c>
-      <c r="I47" t="s">
-        <v>242</v>
-      </c>
-      <c r="J47" t="s">
-        <v>124</v>
-      </c>
-      <c r="K47" s="9">
-        <v>3.7773999999999998E-9</v>
-      </c>
-      <c r="L47" t="s">
-        <v>243</v>
-      </c>
-      <c r="M47" t="s">
-        <v>149</v>
-      </c>
-      <c r="N47" t="s">
-        <v>229</v>
-      </c>
-      <c r="O47" t="s">
-        <v>226</v>
-      </c>
-      <c r="P47" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>231</v>
-      </c>
       <c r="R47" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="S47" s="9">
-        <v>4.5183000000000002E-12</v>
+        <v>4.3953999999999996E-12</v>
       </c>
       <c r="T47" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="2:24">
       <c r="B48" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C48" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="2:21">
       <c r="B49" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D49" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E49" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F49" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G49" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="H49" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I49" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J49" s="9">
-        <v>1.9137</v>
+        <v>1.9273</v>
       </c>
       <c r="K49" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="L49" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="2:21">
       <c r="B50" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D50" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E50" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F50" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G50" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H50" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I50" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J50" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="K50" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="L50" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="M50" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="N50" s="9">
-        <v>1.2523</v>
+        <v>1.2633000000000001</v>
       </c>
       <c r="O50" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="P50" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="2:21">
       <c r="B51" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C51" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="2:21">
       <c r="B52" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C52" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D52" t="s">
+        <v>241</v>
+      </c>
+      <c r="E52" t="s">
+        <v>142</v>
+      </c>
+      <c r="F52" t="s">
+        <v>242</v>
+      </c>
+      <c r="G52" t="s">
+        <v>243</v>
+      </c>
+      <c r="H52" t="s">
+        <v>244</v>
+      </c>
+      <c r="I52" t="s">
+        <v>145</v>
+      </c>
+      <c r="J52" t="s">
+        <v>245</v>
+      </c>
+      <c r="K52" t="s">
+        <v>119</v>
+      </c>
+      <c r="L52" t="s">
+        <v>246</v>
+      </c>
+      <c r="M52" t="s">
+        <v>247</v>
+      </c>
+      <c r="N52" t="s">
+        <v>139</v>
+      </c>
+      <c r="O52" t="s">
+        <v>248</v>
+      </c>
+      <c r="P52" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q52" t="s">
         <v>249</v>
       </c>
-      <c r="E52" t="s">
-        <v>148</v>
-      </c>
-      <c r="F52" t="s">
-        <v>250</v>
-      </c>
-      <c r="G52" t="s">
-        <v>251</v>
-      </c>
-      <c r="H52" t="s">
-        <v>252</v>
-      </c>
-      <c r="I52" t="s">
-        <v>151</v>
-      </c>
-      <c r="J52" t="s">
-        <v>253</v>
-      </c>
-      <c r="K52" t="s">
-        <v>125</v>
-      </c>
-      <c r="L52" t="s">
-        <v>254</v>
-      </c>
-      <c r="M52" t="s">
-        <v>255</v>
-      </c>
-      <c r="N52" t="s">
-        <v>145</v>
-      </c>
-      <c r="O52" t="s">
-        <v>256</v>
-      </c>
-      <c r="P52" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>257</v>
-      </c>
       <c r="R52" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="S52" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="2:21">
       <c r="B53" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C53" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D53" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E53" s="17">
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G53" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H53" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="I53">
         <v>100</v>
       </c>
       <c r="J53" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="K53" s="17">
-        <v>2.2100000000000002E-2</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="L53" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="M53" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="N53" s="17">
-        <v>0.97789999999999999</v>
+        <v>0.97840000000000005</v>
       </c>
       <c r="O53" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="2:21">
       <c r="B54" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C54" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="2:21">
       <c r="B55" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C55" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D55" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E55" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F55" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G55" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H55" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I55" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J55" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="K55" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="L55" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="M55" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N55" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="O55" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="P55" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="Q55" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="R55" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="S55" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="T55" s="9">
-        <v>3.0510000000000002</v>
+        <v>3.0640000000000001</v>
       </c>
       <c r="U55" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="2:21">
       <c r="B56" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C56" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D56" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E56" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F56" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G56" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H56" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I56" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J56" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="K56" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="L56" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="M56" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N56" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="O56" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="P56" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="Q56" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="R56" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="S56" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="T56" s="9">
-        <v>3.0501</v>
+        <v>3.0640000000000001</v>
       </c>
       <c r="U56" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="2:21">
       <c r="B57" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C57" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="2:21">
       <c r="B58" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C58" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D58" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E58" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F58" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G58" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H58" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I58" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="J58" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K58" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L58" s="18">
-        <v>3.1549999999999998</v>
+        <v>3.16</v>
       </c>
       <c r="M58" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="2:21">
       <c r="B59" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C59" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="2:21">
       <c r="B60" t="s">
-        <v>223</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21">
+      <c r="B63" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" t="s">
+        <v>220</v>
+      </c>
+      <c r="D63" t="s">
+        <v>184</v>
+      </c>
+      <c r="E63" t="s">
+        <v>296</v>
+      </c>
+      <c r="F63" t="s">
+        <v>297</v>
+      </c>
+      <c r="G63" t="s">
+        <v>224</v>
+      </c>
+      <c r="H63" t="s">
+        <v>298</v>
+      </c>
+      <c r="I63" t="s">
+        <v>139</v>
+      </c>
+      <c r="J63" t="s">
+        <v>226</v>
+      </c>
+      <c r="K63" t="s">
+        <v>227</v>
+      </c>
+      <c r="L63" t="s">
+        <v>139</v>
+      </c>
+      <c r="M63">
+        <v>99</v>
+      </c>
+      <c r="N63" t="s">
+        <v>211</v>
+      </c>
+      <c r="O63" t="s">
+        <v>212</v>
+      </c>
+      <c r="P63" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25">
+      <c r="B65" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" t="s">
+        <v>299</v>
+      </c>
+      <c r="D65" t="s">
+        <v>113</v>
+      </c>
+      <c r="E65" t="s">
+        <v>224</v>
+      </c>
+      <c r="F65" t="s">
+        <v>225</v>
+      </c>
+      <c r="G65" s="21">
+        <v>0.68</v>
+      </c>
+      <c r="H65" t="s">
+        <v>212</v>
+      </c>
+      <c r="I65" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="J65" t="s">
+        <v>212</v>
+      </c>
+      <c r="K65" s="21">
+        <v>0.99</v>
+      </c>
+      <c r="L65" t="s">
+        <v>212</v>
+      </c>
+      <c r="M65" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25">
+      <c r="B67" t="s">
+        <v>301</v>
+      </c>
+      <c r="C67">
+        <v>1.0129699999999999</v>
+      </c>
+      <c r="D67">
+        <v>9.7999999999999997E-4</v>
+      </c>
+      <c r="E67">
+        <v>1.0119899999999999</v>
+      </c>
+      <c r="F67" t="s">
+        <v>136</v>
+      </c>
+      <c r="G67">
+        <v>1.0139499999999999</v>
+      </c>
+      <c r="H67">
+        <v>1.01101</v>
+      </c>
+      <c r="I67" t="s">
+        <v>136</v>
+      </c>
+      <c r="J67">
+        <v>1.0149300000000001</v>
+      </c>
+      <c r="K67">
+        <v>1.0103800000000001</v>
+      </c>
+      <c r="L67" t="s">
+        <v>136</v>
+      </c>
+      <c r="M67">
+        <v>1.01556</v>
+      </c>
+    </row>
+    <row r="68" spans="2:25">
+      <c r="B68" t="s">
+        <v>302</v>
+      </c>
+      <c r="C68">
+        <v>1.0129699999999999</v>
+      </c>
+      <c r="D68">
+        <v>9.7999999999999997E-4</v>
+      </c>
+      <c r="E68">
+        <v>1.0119899999999999</v>
+      </c>
+      <c r="F68" t="s">
+        <v>136</v>
+      </c>
+      <c r="G68">
+        <v>1.0139499999999999</v>
+      </c>
+      <c r="H68">
+        <v>1.01101</v>
+      </c>
+      <c r="I68" t="s">
+        <v>136</v>
+      </c>
+      <c r="J68">
+        <v>1.0149300000000001</v>
+      </c>
+      <c r="K68">
+        <v>1.0103800000000001</v>
+      </c>
+      <c r="L68" t="s">
+        <v>136</v>
+      </c>
+      <c r="M68">
+        <v>1.01556</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25">
+      <c r="B69" t="s">
+        <v>303</v>
+      </c>
+      <c r="C69" t="s">
+        <v>304</v>
+      </c>
+      <c r="D69">
+        <v>1.01413</v>
+      </c>
+      <c r="E69">
+        <v>6.6E-4</v>
+      </c>
+      <c r="F69">
+        <v>1.0134700000000001</v>
+      </c>
+      <c r="G69" t="s">
+        <v>136</v>
+      </c>
+      <c r="H69">
+        <v>1.0147900000000001</v>
+      </c>
+      <c r="I69">
+        <v>1.0128200000000001</v>
+      </c>
+      <c r="J69" t="s">
+        <v>136</v>
+      </c>
+      <c r="K69">
+        <v>1.0154399999999999</v>
+      </c>
+      <c r="L69">
+        <v>1.0123899999999999</v>
+      </c>
+      <c r="M69" t="s">
+        <v>136</v>
+      </c>
+      <c r="N69">
+        <v>1.0158700000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25">
+      <c r="B70" t="s">
+        <v>305</v>
+      </c>
+      <c r="C70">
+        <v>1.0129699999999999</v>
+      </c>
+      <c r="D70">
+        <v>9.7999999999999997E-4</v>
+      </c>
+      <c r="E70">
+        <v>1.0119899999999999</v>
+      </c>
+      <c r="F70" t="s">
+        <v>136</v>
+      </c>
+      <c r="G70">
+        <v>1.0139499999999999</v>
+      </c>
+      <c r="H70">
+        <v>1.01101</v>
+      </c>
+      <c r="I70" t="s">
+        <v>136</v>
+      </c>
+      <c r="J70">
+        <v>1.0149300000000001</v>
+      </c>
+      <c r="K70">
+        <v>1.0103800000000001</v>
+      </c>
+      <c r="L70" t="s">
+        <v>136</v>
+      </c>
+      <c r="M70">
+        <v>1.01556</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25">
+      <c r="B71" t="s">
+        <v>306</v>
+      </c>
+      <c r="C71" t="s">
+        <v>307</v>
+      </c>
+      <c r="D71">
+        <v>1.01403</v>
+      </c>
+      <c r="E71">
+        <v>6.6E-4</v>
+      </c>
+      <c r="F71">
+        <v>1.0133700000000001</v>
+      </c>
+      <c r="G71" t="s">
+        <v>136</v>
+      </c>
+      <c r="H71">
+        <v>1.0146900000000001</v>
+      </c>
+      <c r="I71">
+        <v>1.01271</v>
+      </c>
+      <c r="J71" t="s">
+        <v>136</v>
+      </c>
+      <c r="K71">
+        <v>1.0153399999999999</v>
+      </c>
+      <c r="L71">
+        <v>1.0122899999999999</v>
+      </c>
+      <c r="M71" t="s">
+        <v>136</v>
+      </c>
+      <c r="N71">
+        <v>1.0157700000000001</v>
+      </c>
+      <c r="O71">
+        <v>0.58520000000000005</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25">
+      <c r="B72" t="s">
+        <v>308</v>
+      </c>
+      <c r="C72" t="s">
+        <v>307</v>
+      </c>
+      <c r="D72">
+        <v>1.01403</v>
+      </c>
+      <c r="E72">
+        <v>6.6E-4</v>
+      </c>
+      <c r="F72">
+        <v>1.0133700000000001</v>
+      </c>
+      <c r="G72" t="s">
+        <v>136</v>
+      </c>
+      <c r="H72">
+        <v>1.0146900000000001</v>
+      </c>
+      <c r="I72">
+        <v>1.01271</v>
+      </c>
+      <c r="J72" t="s">
+        <v>136</v>
+      </c>
+      <c r="K72">
+        <v>1.0153399999999999</v>
+      </c>
+      <c r="L72">
+        <v>1.0122899999999999</v>
+      </c>
+      <c r="M72" t="s">
+        <v>136</v>
+      </c>
+      <c r="N72">
+        <v>1.0157700000000001</v>
+      </c>
+      <c r="O72">
+        <v>0.58520000000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25">
+      <c r="B73" t="s">
+        <v>309</v>
+      </c>
+      <c r="C73" t="s">
+        <v>307</v>
+      </c>
+      <c r="D73">
+        <v>1.01403</v>
+      </c>
+      <c r="E73">
+        <v>6.6E-4</v>
+      </c>
+      <c r="F73">
+        <v>1.0133700000000001</v>
+      </c>
+      <c r="G73" t="s">
+        <v>136</v>
+      </c>
+      <c r="H73">
+        <v>1.0146900000000001</v>
+      </c>
+      <c r="I73">
+        <v>1.01271</v>
+      </c>
+      <c r="J73" t="s">
+        <v>136</v>
+      </c>
+      <c r="K73">
+        <v>1.0153399999999999</v>
+      </c>
+      <c r="L73">
+        <v>1.0122899999999999</v>
+      </c>
+      <c r="M73" t="s">
+        <v>136</v>
+      </c>
+      <c r="N73">
+        <v>1.0157700000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25">
+      <c r="B76" t="s">
+        <v>310</v>
+      </c>
+      <c r="C76" t="s">
+        <v>119</v>
+      </c>
+      <c r="D76" t="s">
+        <v>311</v>
+      </c>
+      <c r="E76" t="s">
+        <v>142</v>
+      </c>
+      <c r="F76" t="s">
+        <v>312</v>
+      </c>
+      <c r="G76" t="s">
+        <v>113</v>
+      </c>
+      <c r="H76" t="s">
+        <v>313</v>
+      </c>
+      <c r="I76" t="s">
+        <v>130</v>
+      </c>
+      <c r="J76" t="s">
+        <v>119</v>
+      </c>
+      <c r="K76" t="s">
+        <v>314</v>
+      </c>
+      <c r="L76" t="s">
+        <v>315</v>
+      </c>
+      <c r="M76" t="s">
+        <v>119</v>
+      </c>
+      <c r="N76" t="s">
+        <v>113</v>
+      </c>
+      <c r="O76" t="s">
+        <v>114</v>
+      </c>
+      <c r="P76" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>226</v>
+      </c>
+      <c r="R76" t="s">
+        <v>227</v>
+      </c>
+      <c r="S76" t="s">
+        <v>139</v>
+      </c>
+      <c r="T76">
+        <v>99</v>
+      </c>
+      <c r="U76" t="s">
+        <v>211</v>
+      </c>
+      <c r="V76" t="s">
+        <v>212</v>
+      </c>
+      <c r="W76" t="s">
+        <v>229</v>
+      </c>
+      <c r="X76" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="78" spans="2:25">
+      <c r="B78" t="s">
+        <v>113</v>
+      </c>
+      <c r="C78" t="s">
+        <v>299</v>
+      </c>
+      <c r="D78" t="s">
+        <v>113</v>
+      </c>
+      <c r="E78" t="s">
+        <v>224</v>
+      </c>
+      <c r="F78" t="s">
+        <v>225</v>
+      </c>
+      <c r="G78" s="21">
+        <v>0.68</v>
+      </c>
+      <c r="H78" t="s">
+        <v>212</v>
+      </c>
+      <c r="I78" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="J78" t="s">
+        <v>212</v>
+      </c>
+      <c r="K78" s="21">
+        <v>0.99</v>
+      </c>
+      <c r="L78" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="80" spans="2:25">
+      <c r="B80" t="s">
+        <v>301</v>
+      </c>
+      <c r="C80">
+        <v>1.01319</v>
+      </c>
+      <c r="D80">
+        <v>1E-3</v>
+      </c>
+      <c r="E80">
+        <v>1.0121899999999999</v>
+      </c>
+      <c r="F80" t="s">
+        <v>136</v>
+      </c>
+      <c r="G80">
+        <v>1.0141899999999999</v>
+      </c>
+      <c r="H80">
+        <v>1.01119</v>
+      </c>
+      <c r="I80" t="s">
+        <v>136</v>
+      </c>
+      <c r="J80">
+        <v>1.01518</v>
+      </c>
+      <c r="K80">
+        <v>1.01054</v>
+      </c>
+      <c r="L80" t="s">
+        <v>136</v>
+      </c>
+      <c r="M80">
+        <v>1.01583</v>
+      </c>
+    </row>
+    <row r="81" spans="2:20">
+      <c r="B81" t="s">
+        <v>302</v>
+      </c>
+      <c r="C81">
+        <v>1.01319</v>
+      </c>
+      <c r="D81">
+        <v>1E-3</v>
+      </c>
+      <c r="E81">
+        <v>1.0121899999999999</v>
+      </c>
+      <c r="F81" t="s">
+        <v>136</v>
+      </c>
+      <c r="G81">
+        <v>1.0141899999999999</v>
+      </c>
+      <c r="H81">
+        <v>1.01119</v>
+      </c>
+      <c r="I81" t="s">
+        <v>136</v>
+      </c>
+      <c r="J81">
+        <v>1.01518</v>
+      </c>
+      <c r="K81">
+        <v>1.01054</v>
+      </c>
+      <c r="L81" t="s">
+        <v>136</v>
+      </c>
+      <c r="M81">
+        <v>1.01583</v>
+      </c>
+    </row>
+    <row r="82" spans="2:20">
+      <c r="B82" t="s">
+        <v>303</v>
+      </c>
+      <c r="C82" t="s">
+        <v>304</v>
+      </c>
+      <c r="D82">
+        <v>1.0142500000000001</v>
+      </c>
+      <c r="E82">
+        <v>6.7000000000000002E-4</v>
+      </c>
+      <c r="F82">
+        <v>1.0135799999999999</v>
+      </c>
+      <c r="G82" t="s">
+        <v>136</v>
+      </c>
+      <c r="H82">
+        <v>1.01492</v>
+      </c>
+      <c r="I82">
+        <v>1.01292</v>
+      </c>
+      <c r="J82" t="s">
+        <v>136</v>
+      </c>
+      <c r="K82">
+        <v>1.0155799999999999</v>
+      </c>
+      <c r="L82">
+        <v>1.0124899999999999</v>
+      </c>
+      <c r="M82" t="s">
+        <v>136</v>
+      </c>
+      <c r="N82">
+        <v>1.0160100000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="2:20">
+      <c r="B83" t="s">
+        <v>309</v>
+      </c>
+      <c r="C83" t="s">
+        <v>307</v>
+      </c>
+      <c r="D83">
+        <v>1.0141800000000001</v>
+      </c>
+      <c r="E83">
+        <v>6.7000000000000002E-4</v>
+      </c>
+      <c r="F83">
+        <v>1.0135099999999999</v>
+      </c>
+      <c r="G83" t="s">
+        <v>136</v>
+      </c>
+      <c r="H83">
+        <v>1.01485</v>
+      </c>
+      <c r="I83">
+        <v>1.01285</v>
+      </c>
+      <c r="J83" t="s">
+        <v>136</v>
+      </c>
+      <c r="K83">
+        <v>1.0155099999999999</v>
+      </c>
+      <c r="L83">
+        <v>1.01241</v>
+      </c>
+      <c r="M83" t="s">
+        <v>136</v>
+      </c>
+      <c r="N83">
+        <v>1.0159499999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="2:20">
+      <c r="B86" t="s">
+        <v>119</v>
+      </c>
+      <c r="C86" t="s">
+        <v>220</v>
+      </c>
+      <c r="D86" t="s">
+        <v>184</v>
+      </c>
+      <c r="E86" t="s">
+        <v>232</v>
+      </c>
+      <c r="F86" t="s">
+        <v>233</v>
+      </c>
+      <c r="G86" t="s">
+        <v>318</v>
+      </c>
+      <c r="H86" t="s">
+        <v>297</v>
+      </c>
+      <c r="I86" t="s">
+        <v>224</v>
+      </c>
+      <c r="J86" t="s">
+        <v>298</v>
+      </c>
+      <c r="K86" t="s">
+        <v>139</v>
+      </c>
+      <c r="L86" t="s">
+        <v>226</v>
+      </c>
+      <c r="M86" t="s">
+        <v>227</v>
+      </c>
+      <c r="N86" t="s">
+        <v>139</v>
+      </c>
+      <c r="O86">
+        <v>99</v>
+      </c>
+      <c r="P86" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>212</v>
+      </c>
+      <c r="R86" t="s">
+        <v>229</v>
+      </c>
+      <c r="S86" t="s">
+        <v>230</v>
+      </c>
+      <c r="T86" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="88" spans="2:20">
+      <c r="B88" t="s">
+        <v>299</v>
+      </c>
+      <c r="C88" t="s">
+        <v>234</v>
+      </c>
+      <c r="D88" t="s">
+        <v>320</v>
+      </c>
+      <c r="E88" t="s">
+        <v>321</v>
+      </c>
+      <c r="F88" s="21">
+        <v>0.68</v>
+      </c>
+      <c r="G88" t="s">
+        <v>212</v>
+      </c>
+      <c r="H88" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="I88" t="s">
+        <v>212</v>
+      </c>
+      <c r="J88" s="21">
+        <v>0.99</v>
+      </c>
+      <c r="K88" t="s">
+        <v>212</v>
+      </c>
+      <c r="L88" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="90" spans="2:20">
+      <c r="B90" t="s">
+        <v>301</v>
+      </c>
+      <c r="C90" s="9">
+        <v>3.61319E-9</v>
+      </c>
+      <c r="D90" s="9">
+        <v>4.5521000000000004E-12</v>
+      </c>
+      <c r="E90" s="9">
+        <v>3.6086000000000001E-9</v>
+      </c>
+      <c r="F90" t="s">
+        <v>136</v>
+      </c>
+      <c r="G90" s="9">
+        <v>3.6177E-9</v>
+      </c>
+      <c r="H90" s="9">
+        <v>3.6041E-9</v>
+      </c>
+      <c r="I90" t="s">
+        <v>136</v>
+      </c>
+      <c r="J90" s="9">
+        <v>3.6223000000000002E-9</v>
+      </c>
+      <c r="K90" s="9">
+        <v>3.6011999999999999E-9</v>
+      </c>
+      <c r="L90" t="s">
+        <v>136</v>
+      </c>
+      <c r="M90" s="9">
+        <v>3.6251999999999998E-9</v>
+      </c>
+    </row>
+    <row r="91" spans="2:20">
+      <c r="B91" t="s">
+        <v>302</v>
+      </c>
+      <c r="C91" s="9">
+        <v>3.61319E-9</v>
+      </c>
+      <c r="D91" s="9">
+        <v>4.5521000000000004E-12</v>
+      </c>
+      <c r="E91" s="9">
+        <v>3.6086000000000001E-9</v>
+      </c>
+      <c r="F91" t="s">
+        <v>136</v>
+      </c>
+      <c r="G91" s="9">
+        <v>3.6177E-9</v>
+      </c>
+      <c r="H91" s="9">
+        <v>3.6041E-9</v>
+      </c>
+      <c r="I91" t="s">
+        <v>136</v>
+      </c>
+      <c r="J91" s="9">
+        <v>3.6223000000000002E-9</v>
+      </c>
+      <c r="K91" s="9">
+        <v>3.6011999999999999E-9</v>
+      </c>
+      <c r="L91" t="s">
+        <v>136</v>
+      </c>
+      <c r="M91" s="9">
+        <v>3.6251999999999998E-9</v>
+      </c>
+    </row>
+    <row r="92" spans="2:20">
+      <c r="B92" t="s">
+        <v>303</v>
+      </c>
+      <c r="C92" t="s">
+        <v>304</v>
+      </c>
+      <c r="D92" s="9">
+        <v>3.6182700000000002E-9</v>
+      </c>
+      <c r="E92" s="9">
+        <v>4.2527199999999997E-12</v>
+      </c>
+      <c r="F92" s="9">
+        <v>3.6140000000000001E-9</v>
+      </c>
+      <c r="G92" t="s">
+        <v>136</v>
+      </c>
+      <c r="H92" s="9">
+        <v>3.6224999999999998E-9</v>
+      </c>
+      <c r="I92" s="9">
+        <v>3.6098000000000001E-9</v>
+      </c>
+      <c r="J92" t="s">
+        <v>136</v>
+      </c>
+      <c r="K92" s="9">
+        <v>3.6266999999999999E-9</v>
+      </c>
+      <c r="L92" s="9">
+        <v>3.6070000000000001E-9</v>
+      </c>
+      <c r="M92" t="s">
+        <v>136</v>
+      </c>
+      <c r="N92" s="9">
+        <v>3.6294999999999999E-9</v>
+      </c>
+    </row>
+    <row r="93" spans="2:20">
+      <c r="B93" t="s">
+        <v>305</v>
+      </c>
+      <c r="C93" s="9">
+        <v>3.61319E-9</v>
+      </c>
+      <c r="D93" s="9">
+        <v>4.5521000000000004E-12</v>
+      </c>
+      <c r="E93" s="9">
+        <v>3.6086000000000001E-9</v>
+      </c>
+      <c r="F93" t="s">
+        <v>136</v>
+      </c>
+      <c r="G93" s="9">
+        <v>3.6177E-9</v>
+      </c>
+      <c r="H93" s="9">
+        <v>3.6041E-9</v>
+      </c>
+      <c r="I93" t="s">
+        <v>136</v>
+      </c>
+      <c r="J93" s="9">
+        <v>3.6223000000000002E-9</v>
+      </c>
+      <c r="K93" s="9">
+        <v>3.6011999999999999E-9</v>
+      </c>
+      <c r="L93" t="s">
+        <v>136</v>
+      </c>
+      <c r="M93" s="9">
+        <v>3.6251999999999998E-9</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:20">
+      <c r="B94" t="s">
+        <v>306</v>
+      </c>
+      <c r="C94" t="s">
+        <v>307</v>
+      </c>
+      <c r="D94" s="9">
+        <v>3.6191499999999999E-9</v>
+      </c>
+      <c r="E94" s="9">
+        <v>4.3953700000000001E-12</v>
+      </c>
+      <c r="F94" s="9">
+        <v>3.6148E-9</v>
+      </c>
+      <c r="G94" t="s">
+        <v>136</v>
+      </c>
+      <c r="H94" s="9">
+        <v>3.6236000000000002E-9</v>
+      </c>
+      <c r="I94" s="9">
+        <v>3.6103999999999999E-9</v>
+      </c>
+      <c r="J94" t="s">
+        <v>136</v>
+      </c>
+      <c r="K94" s="9">
+        <v>3.6278999999999998E-9</v>
+      </c>
+      <c r="L94" s="9">
+        <v>3.6074999999999998E-9</v>
+      </c>
+      <c r="M94" t="s">
+        <v>136</v>
+      </c>
+      <c r="N94" s="9">
+        <v>3.6307999999999999E-9</v>
+      </c>
+      <c r="O94">
+        <v>0.95169999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="2:20">
+      <c r="B95" t="s">
+        <v>308</v>
+      </c>
+      <c r="C95" t="s">
+        <v>307</v>
+      </c>
+      <c r="D95" s="9">
+        <v>3.6191499999999999E-9</v>
+      </c>
+      <c r="E95" s="9">
+        <v>4.3953700000000001E-12</v>
+      </c>
+      <c r="F95" s="9">
+        <v>3.6148E-9</v>
+      </c>
+      <c r="G95" t="s">
+        <v>136</v>
+      </c>
+      <c r="H95" s="9">
+        <v>3.6236000000000002E-9</v>
+      </c>
+      <c r="I95" s="9">
+        <v>3.6103999999999999E-9</v>
+      </c>
+      <c r="J95" t="s">
+        <v>136</v>
+      </c>
+      <c r="K95" s="9">
+        <v>3.6278999999999998E-9</v>
+      </c>
+      <c r="L95" s="9">
+        <v>3.6074999999999998E-9</v>
+      </c>
+      <c r="M95" t="s">
+        <v>136</v>
+      </c>
+      <c r="N95" s="9">
+        <v>3.6307999999999999E-9</v>
+      </c>
+      <c r="O95">
+        <v>0.95169999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="2:20">
+      <c r="B96" t="s">
+        <v>309</v>
+      </c>
+      <c r="C96" t="s">
+        <v>307</v>
+      </c>
+      <c r="D96" s="9">
+        <v>3.6191499999999999E-9</v>
+      </c>
+      <c r="E96" s="9">
+        <v>4.3953700000000001E-12</v>
+      </c>
+      <c r="F96" s="9">
+        <v>3.6148E-9</v>
+      </c>
+      <c r="G96" t="s">
+        <v>136</v>
+      </c>
+      <c r="H96" s="9">
+        <v>3.6236000000000002E-9</v>
+      </c>
+      <c r="I96" s="9">
+        <v>3.6103999999999999E-9</v>
+      </c>
+      <c r="J96" t="s">
+        <v>136</v>
+      </c>
+      <c r="K96" s="9">
+        <v>3.6278999999999998E-9</v>
+      </c>
+      <c r="L96" s="9">
+        <v>3.6074999999999998E-9</v>
+      </c>
+      <c r="M96" t="s">
+        <v>136</v>
+      </c>
+      <c r="N96" s="9">
+        <v>3.6307999999999999E-9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22">
+      <c r="B98" t="s">
+        <v>302</v>
+      </c>
+      <c r="C98" t="s">
+        <v>322</v>
+      </c>
+      <c r="D98" t="s">
+        <v>142</v>
+      </c>
+      <c r="E98" t="s">
+        <v>232</v>
+      </c>
+      <c r="F98" t="s">
+        <v>323</v>
+      </c>
+      <c r="G98" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22">
+      <c r="B100" t="s">
+        <v>324</v>
+      </c>
+      <c r="C100" t="s">
+        <v>325</v>
+      </c>
+      <c r="D100" t="s">
+        <v>121</v>
+      </c>
+      <c r="E100" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22">
+      <c r="B102" t="s">
+        <v>88</v>
+      </c>
+      <c r="C102" s="9">
+        <v>0.66979200000000005</v>
+      </c>
+      <c r="D102" s="9">
+        <v>9.99741E-3</v>
+      </c>
+      <c r="E102" s="9">
+        <v>0.32021100000000002</v>
+      </c>
+      <c r="F102" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22">
+      <c r="B103" t="s">
+        <v>326</v>
+      </c>
+      <c r="C103" s="9">
+        <v>5.3944900000000001E-9</v>
+      </c>
+      <c r="D103" s="9">
+        <v>3.6141200000000001E-7</v>
+      </c>
+      <c r="E103" s="9">
+        <v>1.1283799999999999E-8</v>
+      </c>
+      <c r="F103" s="9">
+        <v>3.61319E-9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22">
+      <c r="B104" t="s">
+        <v>327</v>
+      </c>
+      <c r="C104" s="9">
+        <v>5.4033999999999998E-9</v>
+      </c>
+      <c r="D104" s="9">
+        <v>3.6200900000000002E-7</v>
+      </c>
+      <c r="E104" s="9">
+        <v>1.1302399999999999E-8</v>
+      </c>
+      <c r="F104" s="9">
+        <v>3.6191499999999999E-9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22">
+      <c r="A106" t="s">
+        <v>328</v>
+      </c>
+      <c r="B106" t="s">
+        <v>199</v>
+      </c>
+      <c r="C106" t="s">
+        <v>139</v>
+      </c>
+      <c r="D106" t="s">
+        <v>221</v>
+      </c>
+      <c r="E106" t="s">
+        <v>222</v>
+      </c>
+      <c r="F106" t="s">
+        <v>113</v>
+      </c>
+      <c r="G106" t="s">
+        <v>114</v>
+      </c>
+      <c r="H106" t="s">
+        <v>170</v>
+      </c>
+      <c r="I106">
+        <v>10</v>
+      </c>
+      <c r="J106" t="s">
+        <v>329</v>
+      </c>
+      <c r="K106" t="s">
+        <v>330</v>
+      </c>
+      <c r="L106" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22">
+      <c r="B108" t="s">
+        <v>138</v>
+      </c>
+      <c r="C108" t="s">
+        <v>146</v>
+      </c>
+      <c r="D108" t="s">
+        <v>157</v>
+      </c>
+      <c r="E108" t="s">
+        <v>142</v>
+      </c>
+      <c r="F108" t="s">
+        <v>184</v>
+      </c>
+      <c r="G108" t="s">
+        <v>113</v>
+      </c>
+      <c r="H108" t="s">
+        <v>332</v>
+      </c>
+      <c r="I108" t="s">
+        <v>139</v>
+      </c>
+      <c r="J108" t="s">
+        <v>333</v>
+      </c>
+      <c r="K108" t="s">
+        <v>197</v>
+      </c>
+      <c r="L108" t="s">
+        <v>184</v>
+      </c>
+      <c r="M108" t="s">
+        <v>334</v>
+      </c>
+      <c r="N108" t="s">
+        <v>334</v>
+      </c>
+      <c r="O108" t="s">
+        <v>212</v>
+      </c>
+      <c r="P108" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22">
+      <c r="B109" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" t="s">
+        <v>330</v>
+      </c>
+      <c r="D109" t="s">
+        <v>335</v>
+      </c>
+      <c r="E109" t="s">
+        <v>336</v>
+      </c>
+      <c r="F109" t="s">
+        <v>337</v>
+      </c>
+      <c r="G109" t="s">
+        <v>338</v>
+      </c>
+      <c r="H109" t="s">
+        <v>339</v>
+      </c>
+      <c r="I109" t="s">
+        <v>340</v>
+      </c>
+      <c r="J109" t="s">
+        <v>338</v>
+      </c>
+      <c r="K109" t="s">
+        <v>339</v>
+      </c>
+      <c r="L109" t="s">
+        <v>341</v>
+      </c>
+      <c r="M109" t="s">
+        <v>338</v>
+      </c>
+      <c r="N109" t="s">
+        <v>339</v>
+      </c>
+      <c r="O109" t="s">
+        <v>342</v>
+      </c>
+      <c r="P109" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>338</v>
+      </c>
+      <c r="R109" t="s">
+        <v>339</v>
+      </c>
+      <c r="S109" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="T109" t="s">
+        <v>212</v>
+      </c>
+      <c r="U109" s="21">
+        <v>0.99</v>
+      </c>
+      <c r="V109" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22">
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>200</v>
+      </c>
+      <c r="D111" t="s">
+        <v>218</v>
+      </c>
+      <c r="E111">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="F111">
+        <v>1E-3</v>
+      </c>
+      <c r="G111">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="H111">
+        <v>1E-3</v>
+      </c>
+      <c r="I111">
+        <v>1.0141</v>
+      </c>
+      <c r="J111">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="K111" t="s">
+        <v>343</v>
+      </c>
+      <c r="L111">
+        <v>1.01403</v>
+      </c>
+      <c r="M111">
+        <v>6.6E-4</v>
+      </c>
+      <c r="N111" t="s">
+        <v>344</v>
+      </c>
+      <c r="O111" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22">
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>100</v>
+      </c>
+      <c r="D112" t="s">
+        <v>218</v>
+      </c>
+      <c r="E112">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="F112">
+        <v>1E-3</v>
+      </c>
+      <c r="G112">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="H112">
+        <v>1E-3</v>
+      </c>
+      <c r="I112">
+        <v>1.0141</v>
+      </c>
+      <c r="J112">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="K112" t="s">
+        <v>346</v>
+      </c>
+      <c r="L112">
+        <v>1.014</v>
+      </c>
+      <c r="M112">
+        <v>7.1000000000000002E-4</v>
+      </c>
+      <c r="N112" t="s">
+        <v>347</v>
+      </c>
+      <c r="O112" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="113" spans="2:15">
+      <c r="B113">
+        <v>4</v>
+      </c>
+      <c r="C113">
+        <v>50</v>
+      </c>
+      <c r="D113" t="s">
+        <v>218</v>
+      </c>
+      <c r="E113">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="F113">
+        <v>1E-3</v>
+      </c>
+      <c r="G113">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="H113">
+        <v>1E-3</v>
+      </c>
+      <c r="I113">
+        <v>1.0141</v>
+      </c>
+      <c r="J113">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="K113" t="s">
+        <v>343</v>
+      </c>
+      <c r="L113">
+        <v>1.0142500000000001</v>
+      </c>
+      <c r="M113">
+        <v>7.3999999999999999E-4</v>
+      </c>
+      <c r="N113" t="s">
+        <v>349</v>
+      </c>
+      <c r="O113" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="114" spans="2:15">
+      <c r="B114">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>40</v>
+      </c>
+      <c r="D114" t="s">
+        <v>218</v>
+      </c>
+      <c r="E114">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="F114">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G114">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="H114">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="I114">
+        <v>1.0141</v>
+      </c>
+      <c r="J114">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="K114" t="s">
+        <v>343</v>
+      </c>
+      <c r="L114">
+        <v>1.01424</v>
+      </c>
+      <c r="M114">
+        <v>8.4000000000000003E-4</v>
+      </c>
+      <c r="N114" t="s">
+        <v>351</v>
+      </c>
+      <c r="O114" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="115" spans="2:15">
+      <c r="B115">
+        <v>8</v>
+      </c>
+      <c r="C115">
+        <v>25</v>
+      </c>
+      <c r="D115" t="s">
+        <v>218</v>
+      </c>
+      <c r="E115">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="F115">
+        <v>1E-3</v>
+      </c>
+      <c r="G115">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="H115">
+        <v>1E-3</v>
+      </c>
+      <c r="I115">
+        <v>1.0141</v>
+      </c>
+      <c r="J115">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="K115" t="s">
+        <v>343</v>
+      </c>
+      <c r="L115">
+        <v>1.0142899999999999</v>
+      </c>
+      <c r="M115">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="N115" t="s">
+        <v>353</v>
+      </c>
+      <c r="O115" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="116" spans="2:15">
+      <c r="B116">
+        <v>10</v>
+      </c>
+      <c r="C116">
+        <v>20</v>
+      </c>
+      <c r="D116" t="s">
+        <v>218</v>
+      </c>
+      <c r="E116">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="F116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="G116">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="H116">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="I116">
+        <v>1.0141</v>
+      </c>
+      <c r="J116">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="K116" t="s">
+        <v>343</v>
+      </c>
+      <c r="L116">
+        <v>1.0142199999999999</v>
+      </c>
+      <c r="M116">
+        <v>8.7000000000000001E-4</v>
+      </c>
+      <c r="N116" t="s">
+        <v>355</v>
+      </c>
+      <c r="O116" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="117" spans="2:15">
+      <c r="B117">
+        <v>20</v>
+      </c>
+      <c r="C117">
+        <v>10</v>
+      </c>
+      <c r="D117" t="s">
+        <v>218</v>
+      </c>
+      <c r="E117">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="F117">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="G117">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="H117">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="I117">
+        <v>1.0141</v>
+      </c>
+      <c r="J117">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="K117" t="s">
+        <v>343</v>
+      </c>
+      <c r="L117">
+        <v>1.0138</v>
+      </c>
+      <c r="M117">
+        <v>1.0399999999999999E-3</v>
+      </c>
+      <c r="N117" t="s">
+        <v>357</v>
+      </c>
+      <c r="O117" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="118" spans="2:15">
+      <c r="B118">
+        <v>25</v>
+      </c>
+      <c r="C118">
+        <v>8</v>
+      </c>
+      <c r="D118" t="s">
+        <v>218</v>
+      </c>
+      <c r="E118">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="F118">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G118">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="H118">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="I118">
+        <v>1.0141</v>
+      </c>
+      <c r="J118">
+        <v>1E-3</v>
+      </c>
+      <c r="K118" t="s">
+        <v>343</v>
+      </c>
+      <c r="L118">
+        <v>1.01423</v>
+      </c>
+      <c r="M118">
+        <v>1.3699999999999999E-3</v>
+      </c>
+      <c r="N118" t="s">
+        <v>359</v>
+      </c>
+      <c r="O118" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="119" spans="2:15">
+      <c r="B119">
+        <v>40</v>
+      </c>
+      <c r="C119">
+        <v>5</v>
+      </c>
+      <c r="D119" t="s">
+        <v>218</v>
+      </c>
+      <c r="E119">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="F119">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G119">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="H119">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I119">
+        <v>1.0141</v>
+      </c>
+      <c r="J119">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K119" t="s">
+        <v>343</v>
+      </c>
+      <c r="L119">
+        <v>1.0137700000000001</v>
+      </c>
+      <c r="M119">
+        <v>5.2999999999999998E-4</v>
+      </c>
+      <c r="N119" t="s">
+        <v>361</v>
+      </c>
+      <c r="O119" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="120" spans="2:15">
+      <c r="B120">
+        <v>50</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120" t="s">
+        <v>218</v>
+      </c>
+      <c r="E120">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="F120">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G120">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="H120">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I120">
+        <v>1.0141</v>
+      </c>
+      <c r="J120">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K120" t="s">
+        <v>346</v>
+      </c>
+      <c r="L120">
+        <v>1.0132699999999999</v>
+      </c>
+      <c r="M120">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="N120" t="s">
+        <v>363</v>
+      </c>
+      <c r="O120" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="121" spans="2:15">
+      <c r="B121" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3882,81 +5832,81 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="9"/>
       <c r="C12" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D12" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E12" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="F12" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="9"/>
       <c r="C13" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D13" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E13">
         <v>15.8</v>
       </c>
       <c r="F13" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="9"/>
       <c r="C14" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D14" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E14" s="9">
         <v>3.9801999999999997E-2</v>
       </c>
       <c r="F14" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="9"/>
       <c r="C15" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D15" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E15">
         <v>4.9349999999999996</v>
       </c>
       <c r="F15" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D16" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E16">
         <v>17.273</v>
       </c>
       <c r="F16" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -4046,10 +5996,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="19" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -4066,10 +6016,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -4087,10 +6037,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
@@ -4108,10 +6058,10 @@
         <v>3</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -4138,8 +6088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H21" sqref="H18:H21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4192,10 +6142,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B18" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H18" t="str">
         <f>A18&amp;" "&amp;C18&amp;" "&amp;D18&amp;" "&amp;E18&amp;" "&amp;F18&amp;" "&amp;G18&amp;" "&amp;B18</f>
@@ -4207,7 +6157,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -4216,7 +6166,7 @@
         <v>-15.8</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G19" t="s">
         <v>110</v>
@@ -4228,10 +6178,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B20" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="13"/>
@@ -4251,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G21" t="s">
         <v>111</v>
@@ -4439,7 +6389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -4544,7 +6494,7 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C27">
         <v>0</v>
